--- a/vignettes/Alameda-May4-v1 output.xlsx
+++ b/vignettes/Alameda-May4-v1 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,217 +86,265 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
-    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:   2.890940             4                            4        0.04202709                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:   2.443608             1                            5        0.06810695                  13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:   3.705172             3                            4        0.03828022                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:   3.097102             2                            5        0.02517421                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:   4.921586             3                            7        0.03643845                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:   3.377879             2                            5        0.03032866                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:   2.929420             4                            5        0.04777166                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:   4.067994             4                            4        0.04787753                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:   3.812798             4                            4        0.05059497                   7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:   3.143115             3                            4        0.01616573                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        prop.icu prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1: 0.4487887 0.8292936         2020-03-06                0.5251996                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2: 0.5502658 0.8831492         2020-03-06                0.6580592                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3: 0.4664154 0.8195063         2020-03-06                0.7779575                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4: 0.4287021 0.8479070         2020-03-06                0.8273989                         7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5: 0.4736474 0.8533035         2020-03-06                0.5157291                         8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996: 0.4393939 0.8796800         2020-03-06                0.8397557                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997: 0.4920944 0.8337167         2020-03-06                0.4330270                         9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998: 0.4706050 0.8279167         2020-03-06                0.6462548                         9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999: 0.4675072 0.8122769         2020-03-06                0.5661305                         4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000: 0.4511491 0.8924137         2020-03-06                0.4177203                         7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       intervention2.date intervention2.multiplier intervention2.smooth.days intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:         2020-03-16                0.3952299                         8         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:         2020-03-16                0.4654842                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:         2020-03-16                0.3139963                         5         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:         2020-03-16                0.5594182                         5         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:         2020-03-16                0.6443424                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:         2020-03-16                0.2966097                         6         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:         2020-03-16                0.4457069                         8         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:         2020-03-16                0.5541582                         5         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:         2020-03-16                0.3275438                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:         2020-03-16                0.9422704                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:                 1.679144                         7                           FALSE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:                 1.365394                         8                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:                 1.471412                         5                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:                 2.040386                        10                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:                 1.449264                         7                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:                 1.541516                         4                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:                 1.462749                         7                            TRUE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:                 1.414118                         5                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:                 2.013811                         7                           FALSE         FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:                 1.605697                         5                            TRUE          TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       exposed.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1:                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3:                   6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5:                   8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ---                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9996:                   9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9997:                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9998:                  11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999:                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000:                   9</t>
+    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:   2.890940             4                            4        0.04202709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:   2.443608             1                            5        0.06810695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:   3.705172             3                            4        0.03828022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:   3.097102             2                            5        0.02517421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:   4.921586             3                            7        0.03643845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:   3.377879             2                            5        0.03032866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:   2.929420             4                            5        0.04777166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:   4.067994             4                            4        0.04787753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:   3.812798             4                            4        0.05059497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:   3.143115             3                            4        0.01616573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                  11 0.4487887 0.8292936         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                  13 0.5502658 0.8831492         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                  11 0.4664154 0.8195063         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                   8 0.4287021 0.8479070         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                  11 0.4736474 0.8533035         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                  11 0.4393939 0.8796800         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                   8 0.4920944 0.8337167         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                  11 0.4706050 0.8279167         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                   7 0.4675072 0.8122769         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                  11 0.4511491 0.8924137         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.5251996                         5         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.6580592                         5         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.7779575                         5         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.8273989                         7         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.5157291                         8         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.8397557                         5         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.4330270                         9         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.6462548                         9         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.5661305                         4         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                0.4177203                         7         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.3952299                         8         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.4654842                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.3139963                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.5594182                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.6443424                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.2966097                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.4457069                         8         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.5541582                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.3275438                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                0.9422704                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                 1.679144                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                 1.365394                         8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                 1.471412                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                 2.040386                        10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                 1.449264                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                 1.541516                         4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                 1.462749                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                 1.414118                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                 2.013811                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                 1.605697                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                           FALSE          TRUE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                           FALSE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                            TRUE          TRUE                   6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                            TRUE          TRUE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                            TRUE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                            TRUE         FALSE                   9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                            TRUE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                            TRUE          TRUE                  11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                           FALSE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                            TRUE          TRUE                   9</t>
   </si>
   <si>
     <t xml:space="preserve">$best.guess.params</t>
   </si>
   <si>
-    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized hosp.length.of.stay prop.icu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:        3.5             3                            5              0.04                  10     0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   prop.vent intervention1.date intervention1.multiplier intervention1.smooth.days intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:      0.85         2020-03-06                      0.6                         7         2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date intervention3.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                     0.45                         7         2020-06-01                      1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention3.smooth.days patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                         7                            TRUE          TRUE                   9</t>
+    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:        3.5             3                            5              0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.6                         7         2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      1.5                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
   </si>
   <si>
     <t xml:space="preserve">$devlist</t>
   </si>
   <si>
-    <t xml:space="preserve">NULL</t>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
   </si>
   <si>
     <t xml:space="preserve">$extras</t>
@@ -305,70 +353,136 @@
     <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
   </si>
   <si>
-    <t xml:space="preserve">                      internal.name                                                           external.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                   weight.labels                                                                    &lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:               parameter.weights                                                                  Priors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                      r0.initial                       Basic reproductive number R0 before Intervention1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:                   latent.period    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:    illness.length.given.nonhosp                                       Duration of infectiousness (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          infectious.to.hospital             Time from onset of infectiousness to hospitalization (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:               prop.hospitalized                               Percent of Infected that are Hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:             hosp.length.of.stay                                  Average Hospital Length of Stay (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:                        prop.icu Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:                       prop.vent    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:              intervention1.date                                              Date of first intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        intervention1.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:       intervention1.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:              intervention2.date                                             Date of second intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        intervention2.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:       intervention2.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:              intervention3.date                                              Date of third intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        intervention3.multiplier                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:       intervention3.smooth.days                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: patients.in.hosp.are.infectious                                     Patients in hospital are infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:                   use.hosp.rate   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
   </si>
   <si>
     <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
@@ -443,7 +557,7 @@
     <t xml:space="preserve">        internal.name            external.name      value</t>
   </si>
   <si>
-    <t xml:space="preserve">1:   total.population Number of People in Area     883305</t>
+    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
   </si>
   <si>
     <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
@@ -611,7 +725,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 15:12:11"</t>
+    <t xml:space="preserve">[1] "2020-05-04 23:35:54"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -620,7 +734,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9002" </t>
+    <t xml:space="preserve">"0.3.0.9003" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>
@@ -830,7 +944,7 @@
     <t xml:space="preserve">$model.inputs$total.population</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] 883305</t>
+    <t xml:space="preserve">[1] 1671000</t>
   </si>
   <si>
     <t xml:space="preserve">$model.inputs$start.display.date</t>
@@ -1360,7 +1474,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="n">
-        <v>17.4607940309818</v>
+        <v>17.3162782691111</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1386,7 +1500,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="n">
-        <v>20.1820890437657</v>
+        <v>20.016592104332</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1412,7 +1526,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="n">
-        <v>23.175785693682</v>
+        <v>22.9877558757399</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1438,7 +1552,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="n">
-        <v>26.476763887971</v>
+        <v>26.2645828114541</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1464,7 +1578,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="n">
-        <v>30.0547463864022</v>
+        <v>29.8172134405865</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1490,7 +1604,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="n">
-        <v>33.8479791686828</v>
+        <v>33.5845336553649</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1516,7 +1630,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="n">
-        <v>37.776555380718</v>
+        <v>37.4873791777562</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1542,7 +1656,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="n">
-        <v>41.7498505051619</v>
+        <v>41.4358965474381</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1568,7 +1682,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="n">
-        <v>45.6722411438337</v>
+        <v>45.3352052468386</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1594,7 +1708,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="n">
-        <v>49.4482059509713</v>
+        <v>49.0904528867345</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1620,7 +1734,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="n">
-        <v>52.9869535116484</v>
+        <v>52.6114078251396</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1646,7 +1760,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="n">
-        <v>56.2581538522245</v>
+        <v>55.8679397925223</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1672,7 +1786,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="n">
-        <v>59.2598083024011</v>
+        <v>58.8580701775492</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1698,7 +1812,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="n">
-        <v>62.0028343955208</v>
+        <v>61.5926493234352</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1724,7 +1838,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="n">
-        <v>64.5036507410301</v>
+        <v>64.0879888378931</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1750,7 +1864,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="n">
-        <v>66.7806029968738</v>
+        <v>66.3623119612616</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1776,7 +1890,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="n">
-        <v>68.8522432083205</v>
+        <v>68.4340454302348</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1802,7 +1916,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="n">
-        <v>70.7365100294528</v>
+        <v>70.3210060653679</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1828,7 +1942,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="n">
-        <v>72.4503514980486</v>
+        <v>72.0400266873585</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1854,7 +1968,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="n">
-        <v>74.0095683264764</v>
+        <v>73.6068008420303</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1880,7 +1994,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="n">
-        <v>75.4287689932624</v>
+        <v>75.0358384106061</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1906,7 +2020,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="n">
-        <v>76.7213825333631</v>
+        <v>76.3404784220907</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1932,7 +2046,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="n">
-        <v>77.8997014563108</v>
+        <v>77.5329317224072</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1958,7 +2072,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="n">
-        <v>78.9749402769411</v>
+        <v>78.6243391092911</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1984,7 +2098,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="n">
-        <v>79.9573016979291</v>
+        <v>79.6248370426858</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2010,7 +2124,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="n">
-        <v>80.8560458737544</v>
+        <v>80.5436264015823</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2036,7 +2150,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="n">
-        <v>81.6795600138443</v>
+        <v>81.3890415700439</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2062,7 +2176,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="n">
-        <v>82.4354266218058</v>
+        <v>82.1686181648471</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2088,7 +2202,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="n">
-        <v>83.1304892946773</v>
+        <v>82.8891583384468</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2114,7 +2228,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="n">
-        <v>83.7709154074699</v>
+        <v>83.5567929886785</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2140,7 +2254,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="n">
-        <v>84.3622552784538</v>
+        <v>84.1770404743801</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2166,7 +2280,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="n">
-        <v>84.9094975993605</v>
+        <v>84.7548616231912</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2192,7 +2306,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="n">
-        <v>85.4171210494112</v>
+        <v>85.2947109513628</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2218,7 +2332,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="n">
-        <v>85.8891421090245</v>
+        <v>85.8005841115365</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2244,7 +2358,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="n">
-        <v>86.3291591584531</v>
+        <v>86.2760616532594</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2270,7 +2384,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="n">
-        <v>86.7403929953615</v>
+        <v>86.7243492293584</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2296,7 +2410,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="n">
-        <v>87.1257239384535</v>
+        <v>87.1483144141053</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2322,7 +2436,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="n">
-        <v>87.4877257053643</v>
+        <v>87.5505203200381</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2348,7 +2462,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="n">
-        <v>87.8286962650047</v>
+        <v>87.9332562121581</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2374,7 +2488,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="n">
-        <v>88.1506858695683</v>
+        <v>88.2985653232011</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2400,7 +2514,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="n">
-        <v>88.4555224712441</v>
+        <v>88.6482700735001</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2426,7 +2540,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="n">
-        <v>88.7448347246678</v>
+        <v>88.98399489497</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2452,7 +2566,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="n">
-        <v>89.0200727693875</v>
+        <v>89.3071868520321</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2478,7 +2592,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="n">
-        <v>89.2825269779491</v>
+        <v>89.6191342436857</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2504,7 +2618,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="n">
-        <v>89.5333448452943</v>
+        <v>89.9209833610936</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2530,7 +2644,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="n">
-        <v>89.7735461845132</v>
+        <v>90.2137535644742</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2556,7 +2670,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="n">
-        <v>90.0040367830028</v>
+        <v>90.4983508321841</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2582,7 +2696,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="n">
-        <v>90.2256206620447</v>
+        <v>90.7755799239166</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2678,7 +2792,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="n">
-        <v>7.8573573139418</v>
+        <v>7.7923252211</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2704,7 +2818,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="n">
-        <v>9.08194006969458</v>
+        <v>9.00746644694941</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2730,7 +2844,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="n">
-        <v>10.4291035621569</v>
+        <v>10.344490144083</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2756,7 +2870,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="n">
-        <v>11.9145437495869</v>
+        <v>11.8190622651544</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2782,7 +2896,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="n">
-        <v>13.524635873881</v>
+        <v>13.4177460482639</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2808,7 +2922,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="n">
-        <v>15.2315906259073</v>
+        <v>15.1130401449142</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2834,7 +2948,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="n">
-        <v>16.9994499213231</v>
+        <v>16.8693206299903</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2860,7 +2974,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="n">
-        <v>18.7874327273228</v>
+        <v>18.6461534463471</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2886,7 +3000,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="n">
-        <v>20.5525085147252</v>
+        <v>20.4008423610774</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2912,7 +3026,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="n">
-        <v>22.2516926779371</v>
+        <v>22.0907037990305</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2938,7 +3052,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="n">
-        <v>23.8441290802418</v>
+        <v>23.6751335213128</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2964,7 +3078,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="n">
-        <v>25.316169233501</v>
+        <v>25.140572906635</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2990,7 +3104,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="n">
-        <v>26.6669137360805</v>
+        <v>26.4861315798971</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3016,7 +3130,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="n">
-        <v>27.9012754779844</v>
+        <v>27.7166921955459</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3042,7 +3156,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="n">
-        <v>29.0266428334636</v>
+        <v>28.8395949770519</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3068,7 +3182,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="n">
-        <v>30.0512713485932</v>
+        <v>29.8630403825677</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3094,7 +3208,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="n">
-        <v>30.9835094437442</v>
+        <v>30.7953204436057</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3120,7 +3234,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="n">
-        <v>31.8314295132537</v>
+        <v>31.6444527294156</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3146,7 +3260,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="n">
-        <v>32.6026581741219</v>
+        <v>32.4180120093113</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3172,7 +3286,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="n">
-        <v>33.3043057469144</v>
+        <v>33.1230603789136</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3198,7 +3312,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="n">
-        <v>33.9429460469681</v>
+        <v>33.7661272847727</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3224,7 +3338,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="n">
-        <v>34.5246221400134</v>
+        <v>34.3532152899408</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3250,7 +3364,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="n">
-        <v>35.0548656553399</v>
+        <v>34.8898192750833</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3276,7 +3390,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="n">
-        <v>35.5387231246235</v>
+        <v>35.380952599181</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3302,7 +3416,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="n">
-        <v>35.9807857640681</v>
+        <v>35.8311766692086</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3328,7 +3442,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="n">
-        <v>36.3852206431895</v>
+        <v>36.244631880712</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3354,7 +3468,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="n">
-        <v>36.7558020062299</v>
+        <v>36.6250687065198</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3380,7 +3494,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="n">
-        <v>37.0959419798126</v>
+        <v>36.9758781741812</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3406,7 +3520,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="n">
-        <v>37.4087201826048</v>
+        <v>37.3001212523011</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3432,7 +3546,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="n">
-        <v>37.6969119333615</v>
+        <v>37.6005568449053</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3458,7 +3572,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="n">
-        <v>37.9630148753042</v>
+        <v>37.879668213471</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3484,7 +3598,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="n">
-        <v>38.2092739197122</v>
+        <v>38.139687730436</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3510,7 +3624,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="n">
-        <v>38.437704472235</v>
+        <v>38.3826199281133</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3536,7 +3650,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="n">
-        <v>38.650113949061</v>
+        <v>38.6102628501914</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3562,7 +3676,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="n">
-        <v>38.8481216213039</v>
+        <v>38.8242277439668</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3588,7 +3702,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="n">
-        <v>39.0331768479127</v>
+        <v>39.0259571532113</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3614,7 +3728,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="n">
-        <v>39.2065757723041</v>
+        <v>39.2167414863474</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3640,7 +3754,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="n">
-        <v>39.3694765674139</v>
+        <v>39.3977341440172</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3666,7 +3780,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="n">
-        <v>39.5229133192521</v>
+        <v>39.5699652954712</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3692,7 +3806,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="n">
-        <v>39.6678086413058</v>
+        <v>39.7343543954405</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3718,7 +3832,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="n">
-        <v>39.8049851120598</v>
+        <v>39.891721533075</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3744,7 +3858,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="n">
-        <v>39.9351756261005</v>
+        <v>40.0427977027365</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3770,7 +3884,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="n">
-        <v>40.0590327462244</v>
+        <v>40.1882340834145</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3796,7 +3910,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="n">
-        <v>40.1771371400771</v>
+        <v>40.3286104096586</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3822,7 +3936,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="n">
-        <v>40.2900051803824</v>
+        <v>40.4644425124921</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3848,7 +3962,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="n">
-        <v>40.3980957830309</v>
+        <v>40.5961891040134</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3874,7 +3988,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="n">
-        <v>40.5018165523513</v>
+        <v>40.7242578744829</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3900,7 +4014,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="n">
-        <v>40.6015292979201</v>
+        <v>40.8490109657625</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3996,7 +4110,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="n">
-        <v>6.67875371685053</v>
+        <v>6.623476437935</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4022,7 +4136,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="n">
-        <v>7.71964905924039</v>
+        <v>7.656346479907</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -4048,7 +4162,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="n">
-        <v>8.86473802783337</v>
+        <v>8.79281662247051</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -4074,7 +4188,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="n">
-        <v>10.1273621871489</v>
+        <v>10.0462029253812</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4100,7 +4214,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="n">
-        <v>11.4959404927988</v>
+        <v>11.4050841410243</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -4126,7 +4240,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="n">
-        <v>12.9468520320212</v>
+        <v>12.8460841231771</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -4152,7 +4266,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="n">
-        <v>14.4495324331246</v>
+        <v>14.3389225354917</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -4178,7 +4292,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="n">
-        <v>15.9693178182244</v>
+        <v>15.8492304293951</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4204,7 +4318,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="n">
-        <v>17.4696322375164</v>
+        <v>17.3407160069158</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -4230,7 +4344,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="n">
-        <v>18.9139387762465</v>
+        <v>18.7770982291759</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4256,7 +4370,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="n">
-        <v>20.2675097182055</v>
+        <v>20.1238634931159</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4282,7 +4396,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="n">
-        <v>21.5187438484759</v>
+        <v>21.3694869706398</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -4308,7 +4422,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="n">
-        <v>22.6668766756684</v>
+        <v>22.5132118429126</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -4334,7 +4448,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="n">
-        <v>23.7160841562867</v>
+        <v>23.559188366214</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -4360,7 +4474,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="n">
-        <v>24.672646408444</v>
+        <v>24.5136557304941</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -4386,7 +4500,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="n">
-        <v>25.5435806463042</v>
+        <v>25.3835843251826</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -4412,7 +4526,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="n">
-        <v>26.3359830271826</v>
+        <v>26.1760223770648</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -4438,7 +4552,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="n">
-        <v>27.0567150862657</v>
+        <v>26.8977848200032</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -4464,7 +4578,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="n">
-        <v>27.7122594480036</v>
+        <v>27.5553102079146</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -4490,7 +4604,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="n">
-        <v>28.3086598848772</v>
+        <v>28.1546013220766</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -4516,7 +4630,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="n">
-        <v>28.8515041399229</v>
+        <v>28.7012081920568</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -4542,7 +4656,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="n">
-        <v>29.3459288190114</v>
+        <v>29.2002329964497</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -4568,7 +4682,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="n">
-        <v>29.7966358070389</v>
+        <v>29.6563463838208</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -4594,7 +4708,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="n">
-        <v>30.20791465593</v>
+        <v>30.0738097093038</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -4620,7 +4734,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="n">
-        <v>30.5836678994579</v>
+        <v>30.4565001688273</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -4646,7 +4760,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="n">
-        <v>30.9274375467111</v>
+        <v>30.8079370986052</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -4672,7 +4786,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="n">
-        <v>31.2424317052954</v>
+        <v>31.1313084005418</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -4698,7 +4812,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="n">
-        <v>31.5315506828407</v>
+        <v>31.429496448054</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -4724,7 +4838,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="n">
-        <v>31.7974121552141</v>
+        <v>31.7051030644559</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -4750,7 +4864,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="n">
-        <v>32.0423751433572</v>
+        <v>31.9604733181695</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -4776,7 +4890,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="n">
-        <v>32.2685626440086</v>
+        <v>32.1977179814504</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -4802,7 +4916,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="n">
-        <v>32.4778828317554</v>
+        <v>32.4187345708706</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -4828,7 +4942,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="n">
-        <v>32.6720488013998</v>
+        <v>32.6252269388963</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4854,7 +4968,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="n">
-        <v>32.8525968567019</v>
+        <v>32.8187234226627</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -4880,7 +4994,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="n">
-        <v>33.0209033781083</v>
+        <v>33.0005935823717</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4906,7 +5020,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="n">
-        <v>33.1782003207258</v>
+        <v>33.1720635802296</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -4932,7 +5046,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="n">
-        <v>33.3255894064584</v>
+        <v>33.3342302633953</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -4958,7 +5072,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="n">
-        <v>33.4640550823019</v>
+        <v>33.4880740224146</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -4984,7 +5098,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="n">
-        <v>33.5944763213643</v>
+        <v>33.6344705011505</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -5010,7 +5124,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="n">
-        <v>33.7176373451099</v>
+        <v>33.7742012361244</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -5036,7 +5150,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="n">
-        <v>33.8342373452509</v>
+        <v>33.9079633031138</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -5062,7 +5176,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="n">
-        <v>33.9448992821854</v>
+        <v>34.036378047326</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -5088,7 +5202,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="n">
-        <v>34.0501778342907</v>
+        <v>34.1599989709023</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -5114,7 +5228,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="n">
-        <v>34.1505665690655</v>
+        <v>34.2793188482098</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -5140,7 +5254,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="n">
-        <v>34.2465044033251</v>
+        <v>34.3947761356183</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -5166,7 +5280,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="n">
-        <v>34.3383814155763</v>
+        <v>34.5067607384114</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -5192,7 +5306,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="n">
-        <v>34.4265440694986</v>
+        <v>34.6156191933104</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5218,7 +5332,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="n">
-        <v>34.5112999032321</v>
+        <v>34.7216593208981</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5314,7 +5428,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="n">
-        <v>1205.62733067968</v>
+        <v>1196.37788862236</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -5340,7 +5454,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="n">
-        <v>1349.78511040969</v>
+        <v>1339.66175069511</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -5366,7 +5480,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="n">
-        <v>1479.63484841182</v>
+        <v>1468.80500266831</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -5392,7 +5506,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="n">
-        <v>1593.42304944104</v>
+        <v>1582.06563128982</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -5418,7 +5532,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="n">
-        <v>1688.12172863912</v>
+        <v>1676.4296169517</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -5444,7 +5558,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="n">
-        <v>1761.03903783971</v>
+        <v>1749.21156749071</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -5470,7 +5584,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="n">
-        <v>1810.34547226437</v>
+        <v>1798.57848761322</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -5496,7 +5610,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="n">
-        <v>1835.24177659429</v>
+        <v>1823.71804654486</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5522,7 +5636,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="n">
-        <v>1835.96615376948</v>
+        <v>1824.84744279705</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -5548,7 +5662,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="n">
-        <v>1836.9757252575</v>
+        <v>1826.29502997382</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -5574,7 +5688,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="n">
-        <v>1838.30255610959</v>
+        <v>1828.08851451503</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -5600,7 +5714,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="n">
-        <v>1839.93962292709</v>
+        <v>1830.21891146147</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -5626,7 +5740,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="n">
-        <v>1841.86355183635</v>
+        <v>1832.66209146506</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -5652,7 +5766,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="n">
-        <v>1844.04526641043</v>
+        <v>1835.38882406555</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -5678,7 +5792,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="n">
-        <v>1846.4548706872</v>
+        <v>1838.36935281861</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -5704,7 +5818,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="n">
-        <v>1849.06379003099</v>
+        <v>1841.57537988718</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -5730,7 +5844,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="n">
-        <v>1851.84561653067</v>
+        <v>1844.98083271212</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -5756,7 +5870,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="n">
-        <v>1854.77635111266</v>
+        <v>1848.56206694881</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -5782,7 +5896,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="n">
-        <v>1857.83437285761</v>
+        <v>1852.29781668914</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -5808,7 +5922,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="n">
-        <v>1861.00029257395</v>
+        <v>1856.16903907418</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -5834,7 +5948,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="n">
-        <v>1864.25676455506</v>
+        <v>1860.15872216078</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -5860,7 +5974,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="n">
-        <v>1867.58829066188</v>
+        <v>1864.25168761672</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -5886,7 +6000,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="n">
-        <v>1870.98103188812</v>
+        <v>1868.43440210642</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -5912,7 +6026,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="n">
-        <v>1874.42263356053</v>
+        <v>1872.69480286999</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -5938,7 +6052,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="n">
-        <v>1877.90206610667</v>
+        <v>1877.02213910416</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -5964,7 +6078,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="n">
-        <v>1881.40948139152</v>
+        <v>1881.40682898803</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -5990,7 +6104,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="n">
-        <v>1884.936083786</v>
+        <v>1885.84033144</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -6016,7 +6130,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="n">
-        <v>1888.47401480867</v>
+        <v>1890.31503141247</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -6042,7 +6156,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="n">
-        <v>1892.01625010187</v>
+        <v>1894.82413747092</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -6068,7 +6182,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="n">
-        <v>1895.55650753311</v>
+        <v>1899.36159044378</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -6094,7 +6208,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="n">
-        <v>1899.08916528827</v>
+        <v>1903.92198201014</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -6120,7 +6234,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="n">
-        <v>1902.60918891587</v>
+        <v>1908.50048218706</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -6146,7 +6260,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="n">
-        <v>1906.11206637686</v>
+        <v>1913.09277477458</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -6172,7 +6286,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="n">
-        <v>1909.59375024649</v>
+        <v>1917.69499990879</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -6198,7 +6312,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="n">
-        <v>1913.05060630013</v>
+        <v>1922.30370295872</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -6224,7 +6338,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="n">
-        <v>1916.479367794</v>
+        <v>1926.9157890815</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -6250,7 +6364,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="n">
-        <v>1919.87709482301</v>
+        <v>1931.52848282165</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -6276,7 +6390,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="n">
-        <v>1923.24113820288</v>
+        <v>1936.13929220468</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -6302,7 +6416,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="n">
-        <v>1926.56910738217</v>
+        <v>1940.74597683353</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -6328,7 +6442,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="n">
-        <v>1929.85884194232</v>
+        <v>1945.34651954887</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -6354,7 +6468,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="n">
-        <v>1933.10838629116</v>
+        <v>1949.93910126083</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -6380,7 +6494,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="n">
-        <v>1936.3159671977</v>
+        <v>1954.52207860258</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -6406,7 +6520,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="n">
-        <v>1939.4799738542</v>
+        <v>1959.09396409343</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -6432,7 +6546,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="n">
-        <v>1942.59894018524</v>
+        <v>1963.6534085334</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -6458,7 +6572,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="n">
-        <v>1945.67152915438</v>
+        <v>1968.19918538124</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -6484,7 +6598,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="n">
-        <v>1948.69651884596</v>
+        <v>1972.73017689509</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -6510,7 +6624,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="n">
-        <v>1951.672790124</v>
+        <v>1977.24536183928</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -6536,7 +6650,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="n">
-        <v>1954.59931569212</v>
+        <v>1981.74380458212</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -6632,7 +6746,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="n">
-        <v>1905.97395894311</v>
+        <v>1890.8790885855</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6658,7 +6772,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="n">
-        <v>2168.1318574117</v>
+        <v>2151.23012685547</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -6684,7 +6798,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="n">
-        <v>2430.12892976906</v>
+        <v>2411.49417872119</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -6710,7 +6824,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="n">
-        <v>2691.86671121863</v>
+        <v>2671.57849658246</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -6736,7 +6850,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="n">
-        <v>2950.17228191069</v>
+        <v>2928.33217150431</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6762,7 +6876,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="n">
-        <v>3201.24939826312</v>
+        <v>3177.98069121829</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6788,7 +6902,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="n">
-        <v>3441.52029342551</v>
+        <v>3416.96235353129</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -6814,7 +6928,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="n">
-        <v>3667.96438353697</v>
+        <v>3642.26546040918</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -6840,7 +6954,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="n">
-        <v>3878.26145390569</v>
+        <v>3851.57164003927</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -6866,7 +6980,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="n">
-        <v>4094.1032404218</v>
+        <v>4066.46626535968</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -6892,7 +7006,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="n">
-        <v>4312.67711336974</v>
+        <v>4284.15317987467</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -6918,7 +7032,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="n">
-        <v>4532.66201292257</v>
+        <v>4503.32119509886</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -6944,7 +7058,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="n">
-        <v>4753.44470178208</v>
+        <v>4723.36362677161</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -6970,7 +7084,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="n">
-        <v>4974.74687618162</v>
+        <v>4944.00706931194</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -6996,7 +7110,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="n">
-        <v>5196.44785474325</v>
+        <v>5165.1349254755</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -7022,7 +7136,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="n">
-        <v>5418.50035609838</v>
+        <v>5386.7036084933</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -7048,7 +7162,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="n">
-        <v>5640.89057524947</v>
+        <v>5608.7028323498</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -7074,7 +7188,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="n">
-        <v>5863.61933265503</v>
+        <v>5831.13686816638</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -7100,7 +7214,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="n">
-        <v>6086.69323997836</v>
+        <v>6054.01576324857</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -7126,7 +7240,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="n">
-        <v>6310.12062016096</v>
+        <v>6277.35128712009</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -7152,7 +7266,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="n">
-        <v>6533.90967773399</v>
+        <v>6501.15511398333</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -7178,7 +7292,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="n">
-        <v>6758.06772841665</v>
+        <v>6725.43805752089</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -7204,7 +7318,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="n">
-        <v>6982.60092216816</v>
+        <v>6950.20979568891</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -7230,7 +7344,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="n">
-        <v>7207.51419140126</v>
+        <v>7175.47881897577</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -7256,7 +7370,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="n">
-        <v>7432.81129763892</v>
+        <v>7401.25247629925</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -7282,7 +7396,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="n">
-        <v>7658.49491721005</v>
+        <v>7627.53705958547</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -7308,7 +7422,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="n">
-        <v>7884.56673854127</v>
+        <v>7854.33789980837</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -7334,7 +7448,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="n">
-        <v>8111.02755873481</v>
+        <v>8081.65946228763</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -7360,7 +7474,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="n">
-        <v>8337.87737425097</v>
+        <v>8309.50543611344</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -7386,7 +7500,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="n">
-        <v>8565.11546383614</v>
+        <v>8537.87881586023</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -7412,7 +7526,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="n">
-        <v>8792.74046335523</v>
+        <v>8766.78197525529</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -7438,7 +7552,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="n">
-        <v>9020.75043285174</v>
+        <v>8996.21673312581</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -7464,7 +7578,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="n">
-        <v>9249.14291642308</v>
+        <v>9226.18441220874</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -7490,7 +7604,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="n">
-        <v>9477.91499557747</v>
+        <v>9456.68589148571</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -7516,7 +7630,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="n">
-        <v>9707.0633367341</v>
+        <v>9687.7216527003</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -7542,7 +7656,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="n">
-        <v>9936.58423348885</v>
+        <v>9919.29182167521</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -7568,7 +7682,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="n">
-        <v>10166.473644215</v>
+        <v>10151.3962049948</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -7594,7 +7708,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="n">
-        <v>10396.7272255135</v>
+        <v>10384.0343225635</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -7620,7 +7734,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="n">
-        <v>10627.3403619741</v>
+        <v>10617.2054364984</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -7646,7 +7760,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="n">
-        <v>10858.3081926598</v>
+        <v>10850.9085767642</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -7672,7 +7786,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="n">
-        <v>11089.6256346819</v>
+        <v>11085.1425639171</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -7698,7 +7812,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="n">
-        <v>11321.2874041932</v>
+        <v>11319.9060292803</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -7724,7 +7838,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="n">
-        <v>11553.2880350901</v>
+        <v>11555.1974328411</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -7750,7 +7864,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="n">
-        <v>11785.6218956824</v>
+        <v>11791.0150791267</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -7776,7 +7890,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="n">
-        <v>12018.2832035608</v>
+        <v>12027.3571312858</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -7802,7 +7916,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="n">
-        <v>12251.2660388667</v>
+        <v>12264.22162358</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -7828,7 +7942,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="n">
-        <v>12484.5643561449</v>
+        <v>12501.606472464</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -7854,7 +7968,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="n">
-        <v>12718.1719949416</v>
+        <v>12739.5094864156</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -8103,97 +8217,97 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -8243,87 +8357,87 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -8343,47 +8457,47 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101">
@@ -8468,272 +8582,272 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -8808,427 +8922,427 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="270">
@@ -9238,62 +9352,62 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>20</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283">
@@ -9303,241 +9417,441 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>284</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>302</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>276</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
         <v>20</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v1 output.xlsx
+++ b/vignettes/Alameda-May4-v1 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,10 +86,226 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
+    <t xml:space="preserve">       r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:   2.890940             4                            4        0.04202709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:   2.443608             1                            5        0.06810695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:   3.705172             3                            4        0.03828022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:   3.097102             2                            5        0.02517421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:   4.921586             3                            7        0.03643845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:   3.377879             2                            5        0.03032866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:   2.929420             4                            5        0.04777166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:   4.067994             4                            4        0.04787753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:   3.812798             4                            4        0.05059497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:   3.143115             3                            4        0.01616573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                  11 0.4487887 0.8292936         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                  13 0.5502658 0.8831492         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                  11 0.4664154 0.8195063         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                   8 0.4287021 0.8479070         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                  11 0.4736474 0.8533035         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                  11 0.4393939 0.8796800         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                   8 0.4920944 0.8337167         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                  11 0.4706050 0.8279167         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                   7 0.4675072 0.8122769         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                  11 0.4511491 0.8924137         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.5251996                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.6580592                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.7779575                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.8273989                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.5157291                         8         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.8397557                         5         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.4330270                         9         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.6462548                         9         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.5661305                         4         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                0.4177203                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                0.3952299                         8         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                0.4654842                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                0.3139963                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                0.5594182                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                0.6443424                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                0.2966097                         6         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                0.4457069                         8         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                0.5541582                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                0.3275438                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                0.9422704                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                 1.679144                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                 1.365394                         8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                 1.471412                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                 2.040386                        10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                 1.449264                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                 1.541516                         4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                 1.462749                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                 1.414118                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                 2.013811                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                 1.605697                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1:                           FALSE          TRUE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2:                           FALSE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3:                            TRUE          TRUE                   6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4:                            TRUE          TRUE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5:                            TRUE         FALSE                   8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9996:                            TRUE         FALSE                   9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9997:                            TRUE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9998:                            TRUE          TRUE                  11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9999:                           FALSE         FALSE                  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000:                            TRUE          TRUE                   9</t>
+  </si>
+  <si>
     <t xml:space="preserve">$devlist</t>
   </si>
   <si>
-    <t xml:space="preserve">NULL</t>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
   </si>
   <si>
     <t xml:space="preserve">$extras</t>
@@ -98,19 +314,391 @@
     <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
   </si>
   <si>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           low     midlow                 mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA User's "Best Guess"         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15                 0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3                 3.5          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2                   3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4                   5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5                   6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02                0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8                  10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42                0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82                0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-07 2020-03-07          2020-03-07 2020-03-07 2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5                 0.6        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-17 2020-03-17          2020-03-17 2020-03-17 2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4                0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01          2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2                 1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
   </si>
   <si>
+    <t xml:space="preserve">        internal.name            external.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-07-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
   </si>
   <si>
+    <t xml:space="preserve">          Date LowerBound UpperBound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01         52      59.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02         57      65.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03         64      73.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04         60      69.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05         72      82.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06         79      90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07         76      87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09         80      92.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10         93     106.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11         87     100.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12         91     104.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14         92     105.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15         81      93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-16         73      83.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-17         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-18         82      94.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-19         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-20         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-21         85      97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-22         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-23         81      93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-24         79      90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-25         83      95.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-26         84      96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-27         81      93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-28         76      87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-29         76      87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-04-30         74      85.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-01         75      86.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-02         73      83.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33: 2020-05-03         73      83.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$Internal</t>
   </si>
   <si>
+    <t xml:space="preserve">                    internal.name             value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:               search.max.iter                20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               search.expander                 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:           search.num.init.exp                 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:               max.nonconverge              0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                   random.seed             12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:                output.filestr                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:      add.timestamp.to.filestr             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:           min.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:           max.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:               main.iterations             10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:         simulation.start.date        2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        lower.bound.multiplier               0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:        upper.bound.multiplier               1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:            required.in.bounds                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                 show.progress              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:  plot.observed.data.long.term             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: plot.observed.data.short.term              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:             lower.bound.label Confirmed COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:             upper.bound.label  Probable COVID19</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 10:47:02"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:53:24"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -125,6 +713,108 @@
     <t xml:space="preserve">$hosp.bounds</t>
   </si>
   <si>
+    <t xml:space="preserve">          date lower  upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01    52  59.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02    57  65.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03    64  73.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04    60  69.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05    72  82.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06    79  90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07    76  87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09    80  92.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10    93 106.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11    87 100.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12    91 104.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14    92 105.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15    81  93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-16    73  83.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-17    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-18    82  94.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-19    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-20    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-21    85  97.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-22    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-23    81  93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-24    79  90.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-25    83  95.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-26    84  96.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-27    81  93.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-28    76  87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-29    76  87.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-04-30    74  85.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-01    75  86.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-02    73  83.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33: 2020-05-03    73  83.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">$internal.args</t>
   </si>
   <si>
@@ -257,7 +947,145 @@
     <t xml:space="preserve">$observed.data</t>
   </si>
   <si>
+    <t xml:space="preserve">          date   hosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 55.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 61.275</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 68.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 64.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 77.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 84.925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 81.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 86.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 99.975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 93.525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 97.825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 98.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 87.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-16 78.475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-17 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-18 88.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-19 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-20 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-21 91.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-22 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-23 87.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-24 84.925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-25 89.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-26 90.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-27 87.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-28 81.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-29 81.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-04-30 79.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-01 80.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-02 78.475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33: 2020-05-03 78.475</t>
+  </si>
+  <si>
     <t xml:space="preserve">$upp.params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:        3.5             3                            5              0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.6                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      1.5                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
   </si>
 </sst>
 </file>
@@ -15133,486 +15961,1901 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
         <v>20</v>
       </c>
     </row>
